--- a/Desarrollo/KNOWL/Gestión/KW_CR.xlsx
+++ b/Desarrollo/KNOWL/Gestión/KW_CR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="86">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -228,49 +228,28 @@
     <t>Verificación y cierre del documento de requisitos</t>
   </si>
   <si>
-    <t>KW_ER_V3</t>
-  </si>
-  <si>
     <t>Verificación y cierre del documento de arquitectura</t>
   </si>
   <si>
-    <t>KW_AS_V3</t>
-  </si>
-  <si>
     <t>Verificación y cierre del documento de esp. de UI</t>
   </si>
   <si>
-    <t>KW_UI_V3</t>
-  </si>
-  <si>
     <t>Verificación y cierre del documento de esp. de la BD</t>
   </si>
   <si>
-    <t>KW_DB_V3</t>
-  </si>
-  <si>
     <t>Desarrollo y ejecución de las pruebas finales</t>
   </si>
   <si>
-    <t>KW_PS_V3</t>
-  </si>
-  <si>
     <t>Verificación y cierre del documento de despliegue</t>
   </si>
   <si>
-    <t>KW_PD_V3</t>
-  </si>
-  <si>
-    <t>KW_RA_V3</t>
-  </si>
-  <si>
     <t>Redacción del manual de usuario</t>
   </si>
   <si>
     <t>Manual de usuario</t>
   </si>
   <si>
-    <t>KW_MU_V1</t>
+    <t>KW_MU</t>
   </si>
   <si>
     <t>Retrospectiva del tercer sprint</t>
@@ -279,7 +258,7 @@
     <t>Reporte del tercer sprint</t>
   </si>
   <si>
-    <t>KW_RT_V1</t>
+    <t>KW_RT</t>
   </si>
   <si>
     <t>Elaboración del acta de cierre del proyecto</t>
@@ -288,7 +267,7 @@
     <t>Acta de cierre del proyecto</t>
   </si>
   <si>
-    <t>KW_AC_V1</t>
+    <t>KW_AC</t>
   </si>
   <si>
     <t>PérezPuchuri/JP, Sanchez/SM</t>
@@ -392,7 +371,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,12 +400,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF434343"/>
         <bgColor rgb="FF434343"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB6D7A8"/>
-        <bgColor rgb="FFB6D7A8"/>
       </patternFill>
     </fill>
     <fill>
@@ -546,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -659,20 +632,14 @@
     <xf borderId="9" fillId="5" fontId="16" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="6" fontId="12" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="6" fontId="14" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="7" fontId="14" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="9" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="6" fontId="14" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1363,7 +1330,7 @@
       <c r="H24" s="31">
         <v>44384.0</v>
       </c>
-      <c r="I24" s="46">
+      <c r="I24" s="32">
         <v>1.0</v>
       </c>
       <c r="J24" s="9"/>
@@ -1388,7 +1355,7 @@
       <c r="H25" s="31">
         <v>44384.0</v>
       </c>
-      <c r="I25" s="46">
+      <c r="I25" s="32">
         <v>1.0</v>
       </c>
       <c r="J25" s="9"/>
@@ -1413,7 +1380,7 @@
       <c r="H26" s="31">
         <v>44387.0</v>
       </c>
-      <c r="I26" s="46">
+      <c r="I26" s="32">
         <v>1.0</v>
       </c>
       <c r="J26" s="9"/>
@@ -1432,13 +1399,13 @@
       <c r="F27" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="47">
+      <c r="G27" s="46">
         <v>44381.0</v>
       </c>
-      <c r="H27" s="47">
+      <c r="H27" s="46">
         <v>44387.0</v>
       </c>
-      <c r="I27" s="46">
+      <c r="I27" s="32">
         <v>1.0</v>
       </c>
       <c r="J27" s="9"/>
@@ -1463,7 +1430,7 @@
       <c r="H28" s="31">
         <v>44408.0</v>
       </c>
-      <c r="I28" s="48">
+      <c r="I28" s="36">
         <v>1.0</v>
       </c>
       <c r="J28" s="9"/>
@@ -1488,7 +1455,7 @@
       <c r="H29" s="31">
         <v>44408.0</v>
       </c>
-      <c r="I29" s="48">
+      <c r="I29" s="36">
         <v>1.0</v>
       </c>
       <c r="J29" s="9"/>
@@ -1513,8 +1480,8 @@
       <c r="H30" s="31">
         <v>44410.0</v>
       </c>
-      <c r="I30" s="49">
-        <v>0.0</v>
+      <c r="I30" s="36">
+        <v>1.0</v>
       </c>
       <c r="J30" s="9"/>
     </row>
@@ -1538,8 +1505,8 @@
       <c r="H31" s="31">
         <v>44410.0</v>
       </c>
-      <c r="I31" s="49">
-        <v>0.0</v>
+      <c r="I31" s="36">
+        <v>1.0</v>
       </c>
       <c r="J31" s="9"/>
     </row>
@@ -1562,14 +1529,14 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="B33" s="5"/>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="47" t="s">
         <v>69</v>
       </c>
       <c r="D33" s="35" t="s">
         <v>26</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="F33" s="28" t="s">
         <v>28</v>
@@ -1580,21 +1547,21 @@
       <c r="H33" s="31">
         <v>44415.0</v>
       </c>
-      <c r="I33" s="49">
-        <v>0.0</v>
+      <c r="I33" s="36">
+        <v>1.0</v>
       </c>
       <c r="J33" s="9"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="B34" s="5"/>
       <c r="C34" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D34" s="35" t="s">
         <v>30</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="F34" s="28" t="s">
         <v>32</v>
@@ -1605,32 +1572,32 @@
       <c r="H34" s="31">
         <v>44415.0</v>
       </c>
-      <c r="I34" s="49">
-        <v>0.0</v>
+      <c r="I34" s="36">
+        <v>1.0</v>
       </c>
       <c r="J34" s="9"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="B35" s="5"/>
       <c r="C35" s="37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="37" t="s">
-        <v>74</v>
+      <c r="E35" s="38" t="s">
+        <v>35</v>
       </c>
       <c r="F35" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="47">
+      <c r="G35" s="46">
         <v>44412.0</v>
       </c>
-      <c r="H35" s="47">
+      <c r="H35" s="46">
         <v>44418.0</v>
       </c>
-      <c r="I35" s="49">
+      <c r="I35" s="48">
         <v>0.0</v>
       </c>
       <c r="J35" s="9"/>
@@ -1638,13 +1605,13 @@
     <row r="36" ht="15.75" customHeight="1">
       <c r="B36" s="5"/>
       <c r="C36" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D36" s="28" t="s">
         <v>38</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="F36" s="28" t="s">
         <v>40</v>
@@ -1655,7 +1622,7 @@
       <c r="H36" s="31">
         <v>44418.0</v>
       </c>
-      <c r="I36" s="49">
+      <c r="I36" s="48">
         <v>0.0</v>
       </c>
       <c r="J36" s="9"/>
@@ -1663,13 +1630,13 @@
     <row r="37" ht="15.75" customHeight="1">
       <c r="B37" s="5"/>
       <c r="C37" s="28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D37" s="28" t="s">
         <v>42</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="F37" s="28" t="s">
         <v>63</v>
@@ -1680,7 +1647,7 @@
       <c r="H37" s="31">
         <v>44439.0</v>
       </c>
-      <c r="I37" s="49">
+      <c r="I37" s="48">
         <v>0.0</v>
       </c>
       <c r="J37" s="9"/>
@@ -1688,13 +1655,13 @@
     <row r="38" ht="15.75" customHeight="1">
       <c r="B38" s="5"/>
       <c r="C38" s="33" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D38" s="33" t="s">
         <v>46</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="F38" s="28" t="s">
         <v>48</v>
@@ -1705,7 +1672,7 @@
       <c r="H38" s="31">
         <v>44439.0</v>
       </c>
-      <c r="I38" s="49">
+      <c r="I38" s="48">
         <v>0.0</v>
       </c>
       <c r="J38" s="9"/>
@@ -1718,8 +1685,8 @@
       <c r="D39" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="E39" s="33" t="s">
-        <v>81</v>
+      <c r="E39" s="42" t="s">
+        <v>51</v>
       </c>
       <c r="F39" s="33" t="s">
         <v>52</v>
@@ -1730,7 +1697,7 @@
       <c r="H39" s="31">
         <v>44441.0</v>
       </c>
-      <c r="I39" s="49">
+      <c r="I39" s="48">
         <v>0.0</v>
       </c>
       <c r="J39" s="9"/>
@@ -1738,13 +1705,13 @@
     <row r="40" ht="15.75" customHeight="1">
       <c r="B40" s="5"/>
       <c r="C40" s="33" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" s="33" t="s">
-        <v>84</v>
+        <v>76</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>77</v>
       </c>
       <c r="F40" s="33" t="s">
         <v>24</v>
@@ -1755,7 +1722,7 @@
       <c r="H40" s="31">
         <v>44440.0</v>
       </c>
-      <c r="I40" s="49">
+      <c r="I40" s="48">
         <v>0.0</v>
       </c>
       <c r="J40" s="9"/>
@@ -1763,13 +1730,13 @@
     <row r="41" ht="15.75" customHeight="1">
       <c r="B41" s="5"/>
       <c r="C41" s="33" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" s="33" t="s">
-        <v>87</v>
+        <v>79</v>
+      </c>
+      <c r="E41" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="F41" s="33" t="s">
         <v>56</v>
@@ -1780,7 +1747,7 @@
       <c r="H41" s="31">
         <v>44441.0</v>
       </c>
-      <c r="I41" s="49">
+      <c r="I41" s="48">
         <v>0.0</v>
       </c>
       <c r="J41" s="9"/>
@@ -1788,16 +1755,16 @@
     <row r="42" ht="15.75" customHeight="1">
       <c r="B42" s="5"/>
       <c r="C42" s="33" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="E42" s="33" t="s">
-        <v>90</v>
+        <v>82</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>83</v>
       </c>
       <c r="F42" s="33" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G42" s="31">
         <v>44440.0</v>
@@ -1805,7 +1772,7 @@
       <c r="H42" s="31">
         <v>44441.0</v>
       </c>
-      <c r="I42" s="49">
+      <c r="I42" s="48">
         <v>0.0</v>
       </c>
       <c r="J42" s="9"/>
@@ -1813,7 +1780,7 @@
     <row r="43" ht="15.75" customHeight="1">
       <c r="B43" s="5"/>
       <c r="C43" s="43" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D43" s="44"/>
       <c r="E43" s="44"/>
@@ -1828,15 +1795,15 @@
       <c r="J43" s="9"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="51"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="53"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="51"/>
     </row>
     <row r="45" ht="15.75" customHeight="1"/>
     <row r="46" ht="15.75" customHeight="1"/>
